--- a/doc/3.sparkContext的初始化.xlsx
+++ b/doc/3.sparkContext的初始化.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\spark-1.3.1\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,14 +19,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,352 +29,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -383,312 +51,99 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -702,7 +157,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -760,7 +215,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Create</a:t>
+            <a:t>create</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -782,18 +237,18 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3761740" y="1237615"/>
-          <a:ext cx="2066925" cy="2562225"/>
+          <a:off x="3762374" y="1238249"/>
+          <a:ext cx="2066925" cy="2743201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -827,24 +282,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="圆角矩形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3876675" y="1447800"/>
+          <a:off x="3971925" y="1314450"/>
           <a:ext cx="1704975" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -872,7 +327,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>TaskSchedulerImpl</a:t>
+            <a:t>1.TaskSchedulerImpl</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -884,8 +339,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -893,15 +348,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="圆角矩形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3781425" y="2247900"/>
-          <a:ext cx="2009775" cy="552450"/>
+          <a:off x="3781425" y="2066925"/>
+          <a:ext cx="2009775" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -928,7 +383,39 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>SparkDeploySchedulerBackend</a:t>
+            <a:t>2.SparkDeploySchedulerBackend(spark standalone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>模式下的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>backend </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的初始化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -939,25 +426,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="圆角矩形 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3800475" y="3218815"/>
-          <a:ext cx="1885950" cy="524510"/>
+          <a:off x="3933825" y="4648199"/>
+          <a:ext cx="1885950" cy="523876"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -982,30 +469,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>创建</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>schedulerPool</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>，它有不同的优先策略</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>如</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>FIFO)</a:t>
-          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1022,18 +485,18 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="圆角矩形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3819525" y="2856865"/>
-          <a:ext cx="1961515" cy="314325"/>
+          <a:off x="3819525" y="2857499"/>
+          <a:ext cx="1962149" cy="1057276"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1059,6 +522,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>调用</a:t>
           </a:r>
@@ -1071,8 +538,76 @@
             <a:t>的</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>init()</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>initialize(),</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>创建一个调度池。该调度池具有优先策略，如</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fifo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fair</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>等</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1082,26 +617,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="矩形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7477125" y="1390650"/>
-          <a:ext cx="1781175" cy="352425"/>
+          <a:off x="7715250" y="1000125"/>
+          <a:ext cx="1781175" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1128,7 +663,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>TaskSchedulerImpl</a:t>
+            <a:t>4.TaskSchedulerImpl</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -1157,7 +692,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="矩形 8"/>
         <xdr:cNvSpPr/>
@@ -1192,7 +727,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>SparkDeploySchedulerBackend</a:t>
+            <a:t>5.SparkDeploySchedulerBackend</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -1221,7 +756,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="矩形 9"/>
         <xdr:cNvSpPr/>
@@ -1256,7 +791,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>AppClient</a:t>
+            <a:t>6.new AppClient</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1268,8 +803,8 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
@@ -1277,15 +812,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="矩形 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9886950" y="3143250"/>
-          <a:ext cx="1866900" cy="352425"/>
+          <a:off x="9886950" y="2933700"/>
+          <a:ext cx="1866900" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1308,6 +843,52 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7.AppClient.start()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -1316,7 +897,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>clientActor</a:t>
+            <a:t>new clientActor</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -1341,7 +922,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="矩形 11"/>
         <xdr:cNvSpPr/>
@@ -1376,15 +957,14 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>registerWithMaster-&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>8.registerWithMaster-&gt;</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>tryRegisterAllMaster</a:t>
+            <a:t>9.tryRegisterAllMaster</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1405,7 +985,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="矩形 12"/>
         <xdr:cNvSpPr/>
@@ -1462,7 +1042,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>的信息</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1481,7 +1060,7 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="矩形 13"/>
         <xdr:cNvSpPr/>
@@ -1535,17 +1114,17 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
         <xdr:cNvCxnSpPr>
@@ -1555,8 +1134,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5581650" y="1566545"/>
-          <a:ext cx="1895475" cy="123825"/>
+          <a:off x="5676900" y="1228725"/>
+          <a:ext cx="2038350" cy="328613"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1585,17 +1164,17 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
         <xdr:cNvCxnSpPr>
@@ -1604,9 +1183,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9258300" y="1552575"/>
-          <a:ext cx="552450" cy="13970"/>
+        <a:xfrm>
+          <a:off x="9496425" y="1228725"/>
+          <a:ext cx="314325" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1645,7 +1224,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
         <xdr:cNvCxnSpPr>
@@ -1692,10 +1271,10 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
         <xdr:cNvCxnSpPr>
@@ -1705,8 +1284,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10777220" y="2657475"/>
-          <a:ext cx="43180" cy="485775"/>
+          <a:off x="10777538" y="2657476"/>
+          <a:ext cx="42862" cy="276224"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1741,11 +1320,11 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>590233</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="33" name="直接箭头连接符 32"/>
         <xdr:cNvCxnSpPr>
@@ -1756,7 +1335,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10820400" y="3495675"/>
-          <a:ext cx="57150" cy="485775"/>
+          <a:ext cx="56833" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1795,7 +1374,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="35" name="直接箭头连接符 34"/>
         <xdr:cNvCxnSpPr>
@@ -1845,7 +1424,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="37" name="直接箭头连接符 36"/>
         <xdr:cNvCxnSpPr>
@@ -1887,7 +1466,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -1895,7 +1474,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="39" name="直接箭头连接符 38"/>
         <xdr:cNvCxnSpPr>
@@ -1905,8 +1484,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5791200" y="2524125"/>
-          <a:ext cx="1447800" cy="514350"/>
+          <a:off x="5791200" y="2433638"/>
+          <a:ext cx="1447800" cy="604837"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1945,7 +1524,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>161290</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="40" name="文本框 39"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2003,7 +1582,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
             <a:t>上</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2022,7 +1600,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="42" name="直接箭头连接符 41"/>
         <xdr:cNvCxnSpPr>
@@ -2071,7 +1649,7 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="45" name="文本框 44"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2129,7 +1707,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>来工作的</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2139,8 +1716,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -2148,7 +1725,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="47" name="直接箭头连接符 46"/>
         <xdr:cNvCxnSpPr>
@@ -2158,8 +1735,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2476500" y="2519045"/>
-          <a:ext cx="1285240" cy="471805"/>
+          <a:off x="2476500" y="2609850"/>
+          <a:ext cx="1285874" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2198,7 +1775,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="50" name="文本框 49"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2314,18 +1891,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>614680</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="52" name="直接箭头连接符 51"/>
         <xdr:cNvCxnSpPr>
@@ -2335,8 +1912,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4729480" y="571500"/>
-          <a:ext cx="1109345" cy="876300"/>
+          <a:off x="4824413" y="571500"/>
+          <a:ext cx="1014412" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2375,7 +1952,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="55" name="矩形 54"/>
         <xdr:cNvSpPr/>
@@ -2431,7 +2008,7 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="56" name="矩形 55"/>
         <xdr:cNvSpPr/>
@@ -2468,7 +2045,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>DAGSchedulerEventProcessActor</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2567,7 +2143,7 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="57" name="矩形 56"/>
         <xdr:cNvSpPr/>
@@ -2624,7 +2200,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>应用运行状态</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2643,7 +2218,7 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="58" name="矩形 57"/>
         <xdr:cNvSpPr/>
@@ -2696,7 +2271,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>服务，从而显示网页</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2715,7 +2289,7 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="60" name="直接箭头连接符 59"/>
         <xdr:cNvCxnSpPr>
@@ -2765,7 +2339,7 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="62" name="直接箭头连接符 61"/>
         <xdr:cNvCxnSpPr>
@@ -2805,24 +2379,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="64" name="矩形 63"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="438150" y="4019550"/>
+          <a:off x="161925" y="4238625"/>
           <a:ext cx="3419475" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2904,7 +2478,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>DAGScheduler</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2943,7 +2516,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="文本框 14"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2983,6 +2556,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -3071,17 +2645,17 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>671830</xdr:colOff>
+      <xdr:colOff>671513</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
         <xdr:cNvCxnSpPr>
@@ -3091,8 +2665,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4786630" y="1943100"/>
-          <a:ext cx="1204595" cy="304800"/>
+          <a:off x="4786313" y="1943100"/>
+          <a:ext cx="1204912" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3118,6 +2692,83 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1628776" cy="638175"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="文本框 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867399" y="933450"/>
+          <a:ext cx="1628776" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4.createTaskScheduler</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>完成后调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>scheduler</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>taskScheduler)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>start()</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3164,7 +2815,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3199,7 +2850,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3407,19 +3058,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>